--- a/JS-SPA-Self-Evaluation-Protocol.xlsx
+++ b/JS-SPA-Self-Evaluation-Protocol.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
   <si>
     <t>Days Commit in GitHub</t>
   </si>
@@ -162,9 +162,6 @@
     <t>Score</t>
   </si>
   <si>
-    <t>GitHub (up to 100)</t>
-  </si>
-  <si>
     <t>Basic Options (up to 130)</t>
   </si>
   <si>
@@ -193,6 +190,12 @@
   </si>
   <si>
     <t>https://github.com/morsky/OnlineAdsPublishingSPA</t>
+  </si>
+  <si>
+    <t>morsky</t>
+  </si>
+  <si>
+    <t>Vladimir Velkov</t>
   </si>
 </sst>
 </file>
@@ -385,10 +388,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -664,7 +667,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -675,7 +678,7 @@
   <dimension ref="B2:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="B6" sqref="B6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,7 +690,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>46</v>
@@ -696,12 +699,12 @@
         <v>25</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -709,23 +712,27 @@
     </row>
     <row r="4" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="17"/>
+        <v>50</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>57</v>
+      </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
     </row>
     <row r="5" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="17"/>
+        <v>52</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>58</v>
+      </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B6" s="19" t="s">
-        <v>47</v>
+      <c r="B6" s="19">
+        <v>100</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
@@ -733,13 +740,13 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+        <v>49</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -749,7 +756,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" s="6"/>
     </row>
@@ -758,16 +765,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B10" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -917,7 +924,7 @@
       </c>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>13</v>
       </c>
@@ -929,7 +936,7 @@
       </c>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>15</v>
       </c>
@@ -941,7 +948,7 @@
       </c>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>17</v>
       </c>
@@ -953,7 +960,7 @@
       </c>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>18</v>
       </c>
@@ -965,7 +972,7 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>19</v>
       </c>
@@ -977,7 +984,7 @@
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>20</v>
       </c>
@@ -989,7 +996,7 @@
       </c>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>22</v>
       </c>
@@ -1001,7 +1008,7 @@
       </c>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>21</v>
       </c>
@@ -1013,7 +1020,7 @@
       </c>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>23</v>
       </c>
@@ -1025,7 +1032,7 @@
       </c>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>24</v>
       </c>
@@ -1037,15 +1044,15 @@
       </c>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="E33" s="16"/>
     </row>
-    <row r="34" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>27</v>
       </c>
@@ -1221,7 +1228,7 @@
       </c>
       <c r="C51" s="11">
         <f>SUM(C6:C50)</f>
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D51" s="11">
         <v>430</v>
